--- a/medicine/Sexualité et sexologie/Wanda_Kuchwalek/Wanda_Kuchwalek.xlsx
+++ b/medicine/Sexualité et sexologie/Wanda_Kuchwalek/Wanda_Kuchwalek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wanda Gertrude Kuchwalek (née le 22 janvier 1947, morte le 4 septembre 2004 à Vienne) est une proxénète des années 1970 connue sous le nom de "Wilde Wanda".
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wanda Kuchwalek est la fille d'une artiste de cirque, danseuse de serpent. Elle est prise en charge par l'assistance publique à Wiener Neustadt et affirme subir des violences sexuelles de la part de filles.
 À la fin des années 1960, elle devient prostituée dans les quartiers chauds. Elle monte ensuite une maison close près du Prater. En tant que proxénète, elle fait irruption dans un domaine masculin et s'impose avec son allure de butch-fem. Elle porte des costumes noirs d'homme, des chemises blanches avec un col relevé, un bolo, des bottes et un chapeau mou. Ses débuts sont difficiles. Elle a une réputation à cause de son bâton télescopique. Lorsqu'elle est ivre, elle est colérique et violente ; elle prend également des comprimés. C'est ainsi qu'elle se fait connaître dans la presse autrichienne et gagne le surnom de "Wilde Wanda".
@@ -546,7 +560,9 @@
           <t>Affaires judiciaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wanda Kuchwalek est arrêtée pour la première fois à l'âge de 14 ans. Après huit ou dix mentions sur son casier judiciaire, elle rencontre Herbert Eichenseder qui deviendra son avocat ensuite. Elle aura en tout 25 condamnations. Souvent condamnée pour proxénétisme, elle est aussi accusée pour violence publique, menaces et sévices corporels. Elle est aussi jugée pour tentative d'assassinat, mais est acquittée à la suite de la reconstitution de la scène du crime. Pour une balafre sur le visage d'une fille, elle prend deux années de cellule disciplinaire. En 1970, elle avoue lors de son procès avoir donné quatorze coups de rasoir à une fille et est condamnée à trois ans de prison.
 En 1972, alors qu'elle est en détention provisoire, Wanda Kuchwalek provoque un scandale judiciaire. Elle a eu des relations sexuelles avec deux gardiens. Les gardiens sont condamnés à cinq ans de prison pour abus de pouvoir et Kuchwalek à dix ans pour incitation.
